--- a/output/fit_clients/fit_round_413.xlsx
+++ b/output/fit_clients/fit_round_413.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1701528108.178837</v>
+        <v>2422665808.26995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09825641178835999</v>
+        <v>0.1061529123777437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03582304230777004</v>
+        <v>0.03534557376356295</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>850764009.613263</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1898001782.534283</v>
+        <v>1766036391.79527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.114058778668868</v>
+        <v>0.1777062928306186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03736683091227636</v>
+        <v>0.04971539122190687</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>949000915.5418164</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3929707626.792865</v>
+        <v>4914470203.755908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1245079477448848</v>
+        <v>0.1146290156371326</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03003145817358232</v>
+        <v>0.02344335588837257</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>149</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1964853822.606559</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2576766313.782411</v>
+        <v>2703612124.429819</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09429252957168305</v>
+        <v>0.07388074473600593</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04303612251315822</v>
+        <v>0.04507878489384143</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>153</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1288383254.73251</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2812014567.819951</v>
+        <v>2414866690.095293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.145243238479733</v>
+        <v>0.09205575693144347</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03904754761294021</v>
+        <v>0.05662991998834284</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1406007225.641331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2373774875.887877</v>
+        <v>2491631535.522155</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08562983064892474</v>
+        <v>0.08265723577789683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03713122862769476</v>
+        <v>0.03554166064360038</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>130</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1186887463.119189</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3801017652.66845</v>
+        <v>2911809528.996248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1769119380116336</v>
+        <v>0.174619058679846</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02074988503506389</v>
+        <v>0.02153061355549546</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>131</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1900508965.752712</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2275734889.099898</v>
+        <v>1847725583.21772</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1462343216870384</v>
+        <v>0.1682294748965116</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03242324873037941</v>
+        <v>0.03535548800042095</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1137867432.925425</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5253518795.904219</v>
+        <v>4718160368.304204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1461432899971662</v>
+        <v>0.1838414936379963</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04014832945549679</v>
+        <v>0.05163817539564235</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>173</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2626759516.944368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3151341728.291492</v>
+        <v>3361547305.013241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13830374216098</v>
+        <v>0.1771761514545512</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03297769501864609</v>
+        <v>0.03333225795433245</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>170</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1575670817.703254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2995709866.937459</v>
+        <v>3287966692.10324</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1939277304126923</v>
+        <v>0.1432701126143479</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05040149509924385</v>
+        <v>0.03871494918278713</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>140</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1497854951.118937</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3927718876.324686</v>
+        <v>3464284743.45847</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08805976265835931</v>
+        <v>0.08496571689342981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02499442412738345</v>
+        <v>0.02531070722321593</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>138</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1963859496.77806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3617440236.161434</v>
+        <v>3248970920.851221</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1500533781781107</v>
+        <v>0.176282327441964</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03227025963828083</v>
+        <v>0.02727806894243033</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1808720107.824175</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1338152167.451904</v>
+        <v>1362507497.992418</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08795073951309462</v>
+        <v>0.07259655665951621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04211496514761547</v>
+        <v>0.04321350349063757</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>669076132.5432123</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2290216795.421546</v>
+        <v>2759652630.333212</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08765058652004577</v>
+        <v>0.08072725205226047</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04463462659244283</v>
+        <v>0.0384734970493301</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1145108447.27922</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4965209216.447883</v>
+        <v>3565789477.159274</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1270426802664184</v>
+        <v>0.1518471598957259</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03466898070274035</v>
+        <v>0.05091357630584911</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2482604595.122198</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2524854068.508573</v>
+        <v>3824392807.591706</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1121548023174095</v>
+        <v>0.1783897931320072</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02870929573126547</v>
+        <v>0.0234724639684664</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>135</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1262427098.936085</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1303845820.94311</v>
+        <v>1019946745.16012</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1678907498734305</v>
+        <v>0.179051015922538</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02470983883513729</v>
+        <v>0.01698022671241983</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>651923013.6718402</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2722279897.811179</v>
+        <v>2657310821.554634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.122834303061519</v>
+        <v>0.1100027103324614</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03185773331579748</v>
+        <v>0.02171603970606068</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1361139898.33138</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2527493976.475471</v>
+        <v>2241177090.312292</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06974993945251211</v>
+        <v>0.07179454048801441</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03293982154985908</v>
+        <v>0.02786614376597748</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1263746973.726888</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3814863415.454344</v>
+        <v>2792798153.21567</v>
       </c>
       <c r="F22" t="n">
-        <v>0.134164451818539</v>
+        <v>0.1157460623080965</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0434430683362377</v>
+        <v>0.05551269433869092</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>117</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1907431720.480897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1249333032.937666</v>
+        <v>1308296058.897324</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1862174640095723</v>
+        <v>0.1175925602652505</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0467099999833817</v>
+        <v>0.04051228181851144</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>624666544.6455703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2790168056.630309</v>
+        <v>2818991054.182621</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09633704912818329</v>
+        <v>0.1339461496381011</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03664693197622795</v>
+        <v>0.03090441890382551</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1395084077.684333</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1171268367.838921</v>
+        <v>1006923494.212428</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09680649801008773</v>
+        <v>0.08247227425140465</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03035665203741627</v>
+        <v>0.02209163529738711</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>585634208.5341356</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1415830917.719994</v>
+        <v>901658426.0552624</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102368100981992</v>
+        <v>0.0900455155076649</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02766386421822753</v>
+        <v>0.03335070171637553</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>707915532.7048345</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3150586910.279789</v>
+        <v>4030909053.714211</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1113882621655095</v>
+        <v>0.1160469607549748</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02266862488671706</v>
+        <v>0.02537619646442113</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1575293507.479332</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3174320291.792106</v>
+        <v>3039657958.418429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1000333629649737</v>
+        <v>0.1155784091957269</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0359487562256118</v>
+        <v>0.03978384485234575</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1587160172.258461</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4270277920.328965</v>
+        <v>5448431503.57017</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1253076447499226</v>
+        <v>0.1250060921599272</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02868941416068213</v>
+        <v>0.03298577594819489</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>182</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2135138958.268343</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1625557620.380757</v>
+        <v>1555910056.206751</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1371194560414907</v>
+        <v>0.1002100677012257</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03097489769308241</v>
+        <v>0.03649193339627192</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>812778805.0189475</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1441436635.585225</v>
+        <v>1476356489.655128</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08998261747451075</v>
+        <v>0.08019450003663083</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03179938456067517</v>
+        <v>0.03890853768566482</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>720718212.442297</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1398631908.207482</v>
+        <v>1633126117.619791</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1159492472611282</v>
+        <v>0.1039004077906576</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02766112190115997</v>
+        <v>0.02980642018440349</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>699316001.4853286</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2358913090.49847</v>
+        <v>2862751154.963029</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1688669624633551</v>
+        <v>0.1961740930769898</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0485937819441452</v>
+        <v>0.04478898082264728</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>124</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1179456595.480077</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1515777535.886658</v>
+        <v>1209540585.499252</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08175407779674422</v>
+        <v>0.1082994906292422</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0270987820972276</v>
+        <v>0.02563613972601044</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>757888721.2325108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>921801961.7214409</v>
+        <v>1285805798.403394</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08117537836860544</v>
+        <v>0.1164336675111604</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03124328410724259</v>
+        <v>0.04411591894926659</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>460901016.6159294</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3189888732.629373</v>
+        <v>2537139640.449809</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1656270111079244</v>
+        <v>0.165661484120233</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01813069139745922</v>
+        <v>0.02216222760295773</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>104</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1594944333.039466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2221411961.412172</v>
+        <v>2778790823.833051</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08726557515460584</v>
+        <v>0.09176049897665796</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03989381755028365</v>
+        <v>0.03963448958325538</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>111</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1110706038.44516</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1812423420.266528</v>
+        <v>2170164111.678404</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1066124440293364</v>
+        <v>0.09155807883666384</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02865380889934108</v>
+        <v>0.03749779217781264</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>906211715.2693887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2135687664.113474</v>
+        <v>1395548181.204526</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1197839481037328</v>
+        <v>0.1637124168148864</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02492494442734426</v>
+        <v>0.02064650481234055</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1067843806.018155</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1439665356.011947</v>
+        <v>1722627628.881129</v>
       </c>
       <c r="F40" t="n">
-        <v>0.104270483763008</v>
+        <v>0.1523385453671019</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04470343972387155</v>
+        <v>0.03944790278682719</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>719832659.3212639</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1821859109.230138</v>
+        <v>2079366081.08281</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1069290614223631</v>
+        <v>0.129970311451636</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03605841938334522</v>
+        <v>0.03628848742912988</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>910929646.2603263</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3144792934.347382</v>
+        <v>4031837755.490962</v>
       </c>
       <c r="F42" t="n">
-        <v>0.111250106613326</v>
+        <v>0.08676225706218881</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03857585817851292</v>
+        <v>0.03158472901311384</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1572396437.583076</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2681159779.639183</v>
+        <v>2432342926.426662</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1905138270140094</v>
+        <v>0.125914174965269</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01655349261854252</v>
+        <v>0.01954650659807883</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>143</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1340579920.285093</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2325265734.520969</v>
+        <v>1828510042.348583</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000056844969565</v>
+        <v>0.09377709597790668</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03306743991618595</v>
+        <v>0.02432577519425441</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1162633038.50602</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2080818404.935603</v>
+        <v>2383927100.126798</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1885267500614508</v>
+        <v>0.1836274833128139</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04636247906562637</v>
+        <v>0.05049488853339873</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1040409201.480381</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4029395781.433095</v>
+        <v>3626110678.437175</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1642039981701052</v>
+        <v>0.1523616793155234</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05501374562610368</v>
+        <v>0.04586927346757841</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>147</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2014697861.944688</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4603220766.172747</v>
+        <v>4460298372.797312</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1317422705134903</v>
+        <v>0.1900882123790142</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04041978839719773</v>
+        <v>0.05568001619078063</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>110</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2301610416.405114</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3989255784.698872</v>
+        <v>3106766462.147622</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07000533368928027</v>
+        <v>0.07697506940187113</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02568297812953665</v>
+        <v>0.03577739206185319</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>137</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1994627927.345901</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1841810307.963017</v>
+        <v>1226010504.574533</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1620886651298215</v>
+        <v>0.1273083235125046</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03938479485068296</v>
+        <v>0.03690066585560018</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>920905132.8821164</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3499905965.765121</v>
+        <v>3193547790.055292</v>
       </c>
       <c r="F50" t="n">
-        <v>0.120170286860447</v>
+        <v>0.1381735562999453</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04906563279860412</v>
+        <v>0.04717110057544056</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>141</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1749953007.150465</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1055872831.486079</v>
+        <v>1298124526.862865</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1717978058324665</v>
+        <v>0.1566086384576689</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03921389485174662</v>
+        <v>0.04158226193588475</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>527936490.668392</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3710766162.300079</v>
+        <v>4564883313.823699</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1106026612880213</v>
+        <v>0.1264713649345872</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04050694690399457</v>
+        <v>0.05953431343044534</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>170</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1855383154.664438</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3308969216.388333</v>
+        <v>3715646188.809766</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1416568924716506</v>
+        <v>0.1752965938709952</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02995113405114376</v>
+        <v>0.02961012030271211</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>119</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1654484619.329488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3846297800.69552</v>
+        <v>4070387017.051386</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1400934565314258</v>
+        <v>0.1611388945401732</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0520230924237449</v>
+        <v>0.05051049976085051</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1923148952.364245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4859457515.497678</v>
+        <v>3042031082.486373</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1699267675407187</v>
+        <v>0.2005698043580596</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03230158647860142</v>
+        <v>0.03225727266945092</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2429728770.604327</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1154122934.891037</v>
+        <v>1788492243.315571</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1559252883696655</v>
+        <v>0.1056826765929426</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04584422617428945</v>
+        <v>0.04063850068322167</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>577061560.940573</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4463905574.103708</v>
+        <v>2860385147.044901</v>
       </c>
       <c r="F57" t="n">
-        <v>0.183004384711864</v>
+        <v>0.142831249295057</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02046854846110251</v>
+        <v>0.01973850410348222</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>131</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2231952914.385447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1413654463.625459</v>
+        <v>1795810538.006519</v>
       </c>
       <c r="F58" t="n">
-        <v>0.136790229606597</v>
+        <v>0.1587869198193143</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02933879172364959</v>
+        <v>0.02749880416348211</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>706827270.8352793</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3653686148.200154</v>
+        <v>3598683956.71927</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08298065629888954</v>
+        <v>0.09849296959543485</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03536017558618528</v>
+        <v>0.03552530597842417</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>117</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1826843066.754593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3272279617.544528</v>
+        <v>2445357404.18478</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1851475151898272</v>
+        <v>0.140067556271617</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02398470374619144</v>
+        <v>0.03295682685339409</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1636139907.701197</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2437570222.888299</v>
+        <v>3335904154.070588</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1759736918492873</v>
+        <v>0.1724426804186513</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02679643395850966</v>
+        <v>0.02362294551782302</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>142</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1218785144.963805</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1294690503.208291</v>
+        <v>1410536549.143093</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1700723995920134</v>
+        <v>0.1819343412319378</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03950096527796818</v>
+        <v>0.0419923355724626</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>647345203.8892243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4146865987.303347</v>
+        <v>4031976499.454174</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09605627140600345</v>
+        <v>0.06674322556374453</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03041814856640613</v>
+        <v>0.03989031608879597</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2073433049.487216</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4004221879.101659</v>
+        <v>3767928129.703531</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1829129478697712</v>
+        <v>0.1526995870208059</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02709935518400809</v>
+        <v>0.02159301310933452</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>129</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2002110975.723447</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3829147986.413156</v>
+        <v>3950007610.021375</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1168757771716318</v>
+        <v>0.1641770758780727</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02941577429394093</v>
+        <v>0.02988693154737549</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>148</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1914574022.002949</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4253767704.85639</v>
+        <v>5311018482.184245</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1435372696600596</v>
+        <v>0.1577301193901801</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04461696543804302</v>
+        <v>0.04674607946652978</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>121</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2126883839.593492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3469326324.301105</v>
+        <v>2117790866.929368</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07762655702386011</v>
+        <v>0.08828250598744136</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03447010370434267</v>
+        <v>0.03860225882966336</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>132</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1734663140.696455</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3723828486.580315</v>
+        <v>4345448267.799374</v>
       </c>
       <c r="F68" t="n">
-        <v>0.148026117293909</v>
+        <v>0.1336028102401784</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03966161720565838</v>
+        <v>0.04051800144390064</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1861914222.351046</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1881235683.373188</v>
+        <v>1728782778.955845</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1177400756311894</v>
+        <v>0.1720380113771506</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03665471896546658</v>
+        <v>0.04826147642143142</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>940617831.2891181</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2720448498.770271</v>
+        <v>3290859268.825557</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1026587714556901</v>
+        <v>0.0919573373152872</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03453878016761991</v>
+        <v>0.04927799957566423</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>118</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1360224208.208272</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5334357036.577886</v>
+        <v>4053893238.744608</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1648153145113595</v>
+        <v>0.1613386370394547</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02125067265149561</v>
+        <v>0.02187218236988952</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>150</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2667178648.945946</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1587246060.796709</v>
+        <v>2058865552.725632</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08793720586369447</v>
+        <v>0.0800926079160113</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04134361726876059</v>
+        <v>0.05097707184071366</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>793623043.3443688</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2471132370.052666</v>
+        <v>3093483764.902576</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1004736232365724</v>
+        <v>0.09541603644013244</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03364758268207516</v>
+        <v>0.03577792865599478</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>156</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1235566229.454582</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2708163878.07447</v>
+        <v>3506971641.171387</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1541494456033599</v>
+        <v>0.1520637742837703</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02889087930583001</v>
+        <v>0.02825016800994541</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>140</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1354082029.679943</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1698388951.478527</v>
+        <v>1806201377.387704</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1220729071524639</v>
+        <v>0.1174323271073773</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02506960827341456</v>
+        <v>0.02660511536399754</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>849194468.1822693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4203900459.596516</v>
+        <v>5002846249.359185</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1237685532770029</v>
+        <v>0.09607885203633364</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02202214000986405</v>
+        <v>0.03227758411475627</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2101950223.10422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2033820852.107719</v>
+        <v>1534876890.8687</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1401200938656437</v>
+        <v>0.1124488520319182</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02202760346876441</v>
+        <v>0.0229646626765638</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1016910492.566028</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4580121203.06343</v>
+        <v>4552871055.283754</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08731322287877527</v>
+        <v>0.130885108402056</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05314111518304526</v>
+        <v>0.03656493905863108</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>143</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2290060525.770973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1791372873.565084</v>
+        <v>1922331306.090027</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1480513888786207</v>
+        <v>0.1161646851250177</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03343992260012246</v>
+        <v>0.02734075287737768</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>895686521.9700745</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3875538210.832335</v>
+        <v>3525754904.671254</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07696594355633139</v>
+        <v>0.07901052529398803</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03460675332051144</v>
+        <v>0.03860845768843705</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>90</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1937769098.694291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4369084216.738852</v>
+        <v>4509052274.106249</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1285956112623416</v>
+        <v>0.1350460520980185</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02005929830172959</v>
+        <v>0.02633223284478306</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>97</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2184542085.284343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3534809410.908153</v>
+        <v>5436748208.436452</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1959593541406221</v>
+        <v>0.1350903698414069</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0218409425923862</v>
+        <v>0.0202493348534258</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1767404771.183801</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1660389443.437306</v>
+        <v>1619557801.297113</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1542715615153051</v>
+        <v>0.1372487533637441</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03629625212952212</v>
+        <v>0.02803181145284327</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>830194664.8055701</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2354080134.983765</v>
+        <v>2213765211.083636</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08813459882182569</v>
+        <v>0.09365927184915825</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04668525069458732</v>
+        <v>0.04603769495558529</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1177040020.667553</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3051865327.004882</v>
+        <v>3120810239.190433</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1247055076323803</v>
+        <v>0.1695486361319299</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03784241743817033</v>
+        <v>0.03913589448895857</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>156</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1525932729.383809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1893832616.984908</v>
+        <v>2416154390.103482</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1384660278430896</v>
+        <v>0.1213057790654443</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01859361502177415</v>
+        <v>0.01762496272835434</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>946916321.3582902</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1383294866.058327</v>
+        <v>919748360.4407424</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1770847406329768</v>
+        <v>0.1420519716704829</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03099865746946209</v>
+        <v>0.02899323384761235</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>691647535.6098912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3579796706.764093</v>
+        <v>3338593627.49015</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1772515367022806</v>
+        <v>0.1381610157317491</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02807696279580087</v>
+        <v>0.02560824867257043</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>163</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1789898441.140786</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2346891290.594534</v>
+        <v>2156528797.117883</v>
       </c>
       <c r="F89" t="n">
-        <v>0.111556690973003</v>
+        <v>0.1109363259630163</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02949847336176152</v>
+        <v>0.04111612125190379</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>139</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1173445731.291368</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1524806879.213361</v>
+        <v>2039478388.263046</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09410379862535284</v>
+        <v>0.1082825888408147</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04089021045430317</v>
+        <v>0.03711515713875653</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>762403422.87462</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1761358146.561378</v>
+        <v>1664685278.645699</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135177515000449</v>
+        <v>0.1259854949895794</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05051539216247247</v>
+        <v>0.03895262168198382</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>880679077.3764627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2411772373.237479</v>
+        <v>2464133277.972326</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07762627883748979</v>
+        <v>0.08645435701684215</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04164329249151388</v>
+        <v>0.04033083281238835</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>119</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1205886163.964659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4684388314.819067</v>
+        <v>4730090390.63142</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1104601735185766</v>
+        <v>0.1045077153652786</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04841833850504314</v>
+        <v>0.0430914378241908</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2342194113.768591</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1787367372.806837</v>
+        <v>2138662153.719692</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1352253453029689</v>
+        <v>0.1243331810521948</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02694811409576117</v>
+        <v>0.04036678886097272</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>893683657.1047523</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2813888309.913421</v>
+        <v>2138994132.159122</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1099750924611503</v>
+        <v>0.1290665350589297</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03980778564093149</v>
+        <v>0.0391756409761046</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>100</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1406944168.27281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2287402127.209215</v>
+        <v>1458540098.791206</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1202704999904944</v>
+        <v>0.1164823076816952</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02991214172065659</v>
+        <v>0.04261674798792197</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1143701019.921828</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3783752476.09545</v>
+        <v>4012058125.193818</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1532538347262659</v>
+        <v>0.1670409977845585</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02720240856149846</v>
+        <v>0.02628148775252279</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>133</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1891876277.047395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3623993561.44519</v>
+        <v>3895541651.675413</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1058609538952704</v>
+        <v>0.09346847135519511</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02893552618481283</v>
+        <v>0.02515239899239416</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1811996807.73109</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2072895015.947702</v>
+        <v>3136322824.802281</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1232479048981543</v>
+        <v>0.1161705327858018</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0257762401008335</v>
+        <v>0.03458461295372602</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1036447426.777391</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4127099496.533186</v>
+        <v>4664054150.532049</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1161392668289098</v>
+        <v>0.1364669825077391</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02628770010795133</v>
+        <v>0.02089060593307543</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>129</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2063549829.089568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3155657874.822596</v>
+        <v>3330449891.90705</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1854271123158049</v>
+        <v>0.1502312913142528</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04749248389306808</v>
+        <v>0.04938504510298985</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>166</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1577829047.040842</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_413.xlsx
+++ b/output/fit_clients/fit_round_413.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2422665808.26995</v>
+        <v>2393006811.499678</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1061529123777437</v>
+        <v>0.1066708457903288</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03534557376356295</v>
+        <v>0.03677520285984644</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1766036391.79527</v>
+        <v>2033727010.544865</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1777062928306186</v>
+        <v>0.138800120477898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04971539122190687</v>
+        <v>0.0374988056968974</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4914470203.755908</v>
+        <v>3291132995.052832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1146290156371326</v>
+        <v>0.1604282268488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02344335588837257</v>
+        <v>0.0335373810729243</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2703612124.429819</v>
+        <v>3758716928.003531</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07388074473600593</v>
+        <v>0.08983133027680383</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04507878489384143</v>
+        <v>0.04718857858685427</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2414866690.095293</v>
+        <v>2132493921.296378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09205575693144347</v>
+        <v>0.1214489316079917</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05662991998834284</v>
+        <v>0.03849064761750744</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2491631535.522155</v>
+        <v>2265495797.057014</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08265723577789683</v>
+        <v>0.1006920254522319</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03554166064360038</v>
+        <v>0.04843128084900379</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2911809528.996248</v>
+        <v>3849719689.516372</v>
       </c>
       <c r="F8" t="n">
-        <v>0.174619058679846</v>
+        <v>0.2131421916210717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02153061355549546</v>
+        <v>0.02327193042589493</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1847725583.21772</v>
+        <v>1826690133.975906</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1682294748965116</v>
+        <v>0.1445956561868795</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03535548800042095</v>
+        <v>0.0303396665426544</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4718160368.304204</v>
+        <v>4952854913.242748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1838414936379963</v>
+        <v>0.1899645623962113</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05163817539564235</v>
+        <v>0.03918499850362361</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3361547305.013241</v>
+        <v>3539432627.548227</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1771761514545512</v>
+        <v>0.1602745414524715</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03333225795433245</v>
+        <v>0.03704832202326953</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3287966692.10324</v>
+        <v>3262949627.5731</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1432701126143479</v>
+        <v>0.1799134682830329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03871494918278713</v>
+        <v>0.0378321773304168</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3464284743.45847</v>
+        <v>4225075570.89329</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08496571689342981</v>
+        <v>0.07083226459416901</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02531070722321593</v>
+        <v>0.01953696711245827</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3248970920.851221</v>
+        <v>3592177054.323709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.176282327441964</v>
+        <v>0.1430583255083793</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02727806894243033</v>
+        <v>0.04274426026239363</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1362507497.992418</v>
+        <v>1456281525.167149</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07259655665951621</v>
+        <v>0.07836390789696411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04321350349063757</v>
+        <v>0.03716649084689112</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2759652630.333212</v>
+        <v>2865279006.604565</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08072725205226047</v>
+        <v>0.08171837655822885</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0384734970493301</v>
+        <v>0.04454770300474271</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3565789477.159274</v>
+        <v>5248852468.402476</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1518471598957259</v>
+        <v>0.1323876666827131</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05091357630584911</v>
+        <v>0.05092365498150276</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3824392807.591706</v>
+        <v>3939832038.69537</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1783897931320072</v>
+        <v>0.1391447739654003</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0234724639684664</v>
+        <v>0.03151807040057347</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1019946745.16012</v>
+        <v>1131528625.375921</v>
       </c>
       <c r="F19" t="n">
-        <v>0.179051015922538</v>
+        <v>0.135266051725653</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01698022671241983</v>
+        <v>0.02360219016859321</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2657310821.554634</v>
+        <v>2420783190.20037</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1100027103324614</v>
+        <v>0.1519616493606469</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02171603970606068</v>
+        <v>0.02983898052520588</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2241177090.312292</v>
+        <v>2638232464.597895</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07179454048801441</v>
+        <v>0.08687110507048615</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02786614376597748</v>
+        <v>0.04601199868771261</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2792798153.21567</v>
+        <v>2830136295.322936</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1157460623080965</v>
+        <v>0.1383964677947532</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05551269433869092</v>
+        <v>0.05719996851225555</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1308296058.897324</v>
+        <v>1338992665.426125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1175925602652505</v>
+        <v>0.1712436189552745</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04051228181851144</v>
+        <v>0.05050686412364799</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2818991054.182621</v>
+        <v>3072154364.080456</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1339461496381011</v>
+        <v>0.1134409517312137</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03090441890382551</v>
+        <v>0.0258981175677544</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1006923494.212428</v>
+        <v>927822085.5349864</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08247227425140465</v>
+        <v>0.08698519520003038</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02209163529738711</v>
+        <v>0.02426929742354479</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>901658426.0552624</v>
+        <v>1389986897.913107</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0900455155076649</v>
+        <v>0.08627452459600711</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03335070171637553</v>
+        <v>0.02792687127962605</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4030909053.714211</v>
+        <v>3836112807.234879</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1160469607549748</v>
+        <v>0.0987485511051121</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02537619646442113</v>
+        <v>0.0199542815771397</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3039657958.418429</v>
+        <v>3241805004.137803</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1155784091957269</v>
+        <v>0.1159030008027097</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03978384485234575</v>
+        <v>0.03843007055517544</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5448431503.57017</v>
+        <v>4695101393.730776</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1250060921599272</v>
+        <v>0.09210021918721559</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03298577594819489</v>
+        <v>0.03098929676660292</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1555910056.206751</v>
+        <v>1981772168.910832</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1002100677012257</v>
+        <v>0.1360325614669922</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03649193339627192</v>
+        <v>0.03744450963856694</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1476356489.655128</v>
+        <v>1019914339.516292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08019450003663083</v>
+        <v>0.1119377163633005</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03890853768566482</v>
+        <v>0.04232783731891291</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1633126117.619791</v>
+        <v>1533183567.139829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1039004077906576</v>
+        <v>0.1040677591832578</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02980642018440349</v>
+        <v>0.02634873515643101</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2862751154.963029</v>
+        <v>2604929608.96191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1961740930769898</v>
+        <v>0.131724248091639</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04478898082264728</v>
+        <v>0.04129559170625986</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1209540585.499252</v>
+        <v>1359407891.552518</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1082994906292422</v>
+        <v>0.07409562887571888</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02563613972601044</v>
+        <v>0.02532704086358406</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1285805798.403394</v>
+        <v>1186056005.290308</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1164336675111604</v>
+        <v>0.07155325712968746</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04411591894926659</v>
+        <v>0.03152310984017206</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2537139640.449809</v>
+        <v>2579786928.272341</v>
       </c>
       <c r="F36" t="n">
-        <v>0.165661484120233</v>
+        <v>0.1420517150722776</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02216222760295773</v>
+        <v>0.02506514071104634</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2778790823.833051</v>
+        <v>2456486512.439033</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09176049897665796</v>
+        <v>0.06950656328629227</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03963448958325538</v>
+        <v>0.02698951917912839</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2170164111.678404</v>
+        <v>2048480080.998362</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09155807883666384</v>
+        <v>0.08519330325102165</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03749779217781264</v>
+        <v>0.03428131360497302</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1395548181.204526</v>
+        <v>1616961051.281248</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1637124168148864</v>
+        <v>0.1735489675554257</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02064650481234055</v>
+        <v>0.02191158440473272</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1722627628.881129</v>
+        <v>1171698594.229404</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1523385453671019</v>
+        <v>0.1074078421937379</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03944790278682719</v>
+        <v>0.05018164354096154</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2079366081.08281</v>
+        <v>2404824766.893806</v>
       </c>
       <c r="F41" t="n">
-        <v>0.129970311451636</v>
+        <v>0.1508831338151393</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03628848742912988</v>
+        <v>0.04636168264900757</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4031837755.490962</v>
+        <v>4181303133.264957</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08676225706218881</v>
+        <v>0.1051130914807537</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03158472901311384</v>
+        <v>0.04199622684556704</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2432342926.426662</v>
+        <v>1975519116.531876</v>
       </c>
       <c r="F43" t="n">
-        <v>0.125914174965269</v>
+        <v>0.173060925176738</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01954650659807883</v>
+        <v>0.0246000057989283</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1828510042.348583</v>
+        <v>1478887181.105242</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09377709597790668</v>
+        <v>0.08733768819064354</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02432577519425441</v>
+        <v>0.03370972923823788</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2383927100.126798</v>
+        <v>2226480242.20317</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1836274833128139</v>
+        <v>0.169850076677976</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05049488853339873</v>
+        <v>0.03463258695440216</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3626110678.437175</v>
+        <v>5278200805.977547</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1523616793155234</v>
+        <v>0.1594875294025262</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04586927346757841</v>
+        <v>0.05707876780336248</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4460298372.797312</v>
+        <v>4262077210.061365</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1900882123790142</v>
+        <v>0.164432057350361</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05568001619078063</v>
+        <v>0.04852753261135166</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3106766462.147622</v>
+        <v>3297033950.600461</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07697506940187113</v>
+        <v>0.09002538364543299</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03577739206185319</v>
+        <v>0.02472476029622212</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1226010504.574533</v>
+        <v>1866849992.601551</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1273083235125046</v>
+        <v>0.1417997266910646</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03690066585560018</v>
+        <v>0.03959903405382209</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3193547790.055292</v>
+        <v>3446165251.784503</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1381735562999453</v>
+        <v>0.1645829566407238</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04717110057544056</v>
+        <v>0.05052487265859971</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1298124526.862865</v>
+        <v>1535649909.810636</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1566086384576689</v>
+        <v>0.1396306632786086</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04158226193588475</v>
+        <v>0.04604506186082125</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4564883313.823699</v>
+        <v>4893933888.555965</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1264713649345872</v>
+        <v>0.1100919833260787</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05953431343044534</v>
+        <v>0.03743391205018933</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3715646188.809766</v>
+        <v>2348460803.761339</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1752965938709952</v>
+        <v>0.1456768736894974</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02961012030271211</v>
+        <v>0.02416804320267242</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4070387017.051386</v>
+        <v>3245319532.78256</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1611388945401732</v>
+        <v>0.1386659473307341</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05051049976085051</v>
+        <v>0.03578945129546449</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3042031082.486373</v>
+        <v>4766646207.071312</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2005698043580596</v>
+        <v>0.2135245253084614</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03225727266945092</v>
+        <v>0.02799820733404844</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1788492243.315571</v>
+        <v>1167795749.789675</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1056826765929426</v>
+        <v>0.1213650141711829</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04063850068322167</v>
+        <v>0.03979485937438085</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2860385147.044901</v>
+        <v>3180654724.055334</v>
       </c>
       <c r="F57" t="n">
-        <v>0.142831249295057</v>
+        <v>0.1358925478947358</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01973850410348222</v>
+        <v>0.01838325331863903</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1795810538.006519</v>
+        <v>1159449817.429562</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1587869198193143</v>
+        <v>0.183483112573024</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02749880416348211</v>
+        <v>0.03781862120349965</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3598683956.71927</v>
+        <v>3925154522.010366</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09849296959543485</v>
+        <v>0.08532072114288036</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03552530597842417</v>
+        <v>0.03816276212471566</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2445357404.18478</v>
+        <v>2516313517.562274</v>
       </c>
       <c r="F60" t="n">
-        <v>0.140067556271617</v>
+        <v>0.1362056861378018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03295682685339409</v>
+        <v>0.0269015737136344</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3335904154.070588</v>
+        <v>2081511128.793852</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1724426804186513</v>
+        <v>0.1086335151496955</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02362294551782302</v>
+        <v>0.02498133011104816</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1410536549.143093</v>
+        <v>2065888971.596544</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1819343412319378</v>
+        <v>0.1225149197964818</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0419923355724626</v>
+        <v>0.03476745015032928</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4031976499.454174</v>
+        <v>3476447602.862011</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06674322556374453</v>
+        <v>0.09783825233977032</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03989031608879597</v>
+        <v>0.03010622797509921</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3767928129.703531</v>
+        <v>5025357022.467437</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1526995870208059</v>
+        <v>0.1578491995320928</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02159301310933452</v>
+        <v>0.03427047471570104</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3950007610.021375</v>
+        <v>3651156959.935423</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1641770758780727</v>
+        <v>0.1522498693805815</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02988693154737549</v>
+        <v>0.02732306156311029</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5311018482.184245</v>
+        <v>4887201610.737013</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1577301193901801</v>
+        <v>0.1242667622155189</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04674607946652978</v>
+        <v>0.04623123683056626</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2117790866.929368</v>
+        <v>2703049975.871303</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08828250598744136</v>
+        <v>0.07172259332347923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03860225882966336</v>
+        <v>0.03514184775899878</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4345448267.799374</v>
+        <v>5140393173.779747</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1336028102401784</v>
+        <v>0.1082623581763351</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04051800144390064</v>
+        <v>0.03289923299874587</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1728782778.955845</v>
+        <v>2367759405.064447</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1720380113771506</v>
+        <v>0.1633465577703742</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04826147642143142</v>
+        <v>0.04551830013002168</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3290859268.825557</v>
+        <v>2945249694.579887</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0919573373152872</v>
+        <v>0.08019273685847664</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04927799957566423</v>
+        <v>0.03622623207814071</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4053893238.744608</v>
+        <v>4844181210.964799</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1613386370394547</v>
+        <v>0.1554307050479406</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02187218236988952</v>
+        <v>0.02913368062084211</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2058865552.725632</v>
+        <v>1590770445.608836</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0800926079160113</v>
+        <v>0.09381157120173096</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05097707184071366</v>
+        <v>0.05262319991235265</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3093483764.902576</v>
+        <v>2890820564.435287</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09541603644013244</v>
+        <v>0.1013479718613715</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03577792865599478</v>
+        <v>0.04284958240163318</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3506971641.171387</v>
+        <v>3824821594.014493</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1520637742837703</v>
+        <v>0.1648500173407531</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02825016800994541</v>
+        <v>0.03366728225819108</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1806201377.387704</v>
+        <v>1812189523.113504</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1174323271073773</v>
+        <v>0.1323880895715989</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02660511536399754</v>
+        <v>0.03428245347411629</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5002846249.359185</v>
+        <v>5106245346.520645</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09607885203633364</v>
+        <v>0.08647219924332328</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03227758411475627</v>
+        <v>0.02118549982004484</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1534876890.8687</v>
+        <v>1489425460.377428</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1124488520319182</v>
+        <v>0.1703452576788596</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0229646626765638</v>
+        <v>0.02933135931505067</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4552871055.283754</v>
+        <v>4687488808.466193</v>
       </c>
       <c r="F78" t="n">
-        <v>0.130885108402056</v>
+        <v>0.131390396751553</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03656493905863108</v>
+        <v>0.04058597976435756</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1922331306.090027</v>
+        <v>1399151738.787985</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1161646851250177</v>
+        <v>0.151306190244948</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02734075287737768</v>
+        <v>0.03443279437041496</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3525754904.671254</v>
+        <v>3924922538.478333</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07901052529398803</v>
+        <v>0.07747113303059576</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03860845768843705</v>
+        <v>0.02968374043763529</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4509052274.106249</v>
+        <v>3974080841.374878</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1350460520980185</v>
+        <v>0.08282994634642615</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02633223284478306</v>
+        <v>0.03253398460597524</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5436748208.436452</v>
+        <v>3800972679.981877</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1350903698414069</v>
+        <v>0.2011373836115221</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0202493348534258</v>
+        <v>0.01832092507934109</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1619557801.297113</v>
+        <v>2044341524.888041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1372487533637441</v>
+        <v>0.1295243653247517</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02803181145284327</v>
+        <v>0.02875035582285657</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2213765211.083636</v>
+        <v>1669610462.213605</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09365927184915825</v>
+        <v>0.1173226273023422</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04603769495558529</v>
+        <v>0.04090835795324219</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3120810239.190433</v>
+        <v>2524966428.499466</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1695486361319299</v>
+        <v>0.1814014595677647</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03913589448895857</v>
+        <v>0.04885537860585508</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2416154390.103482</v>
+        <v>2249176184.397617</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1213057790654443</v>
+        <v>0.1631472861764707</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01762496272835434</v>
+        <v>0.01724470084496938</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>919748360.4407424</v>
+        <v>963093808.1594146</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1420519716704829</v>
+        <v>0.1630445095032414</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02899323384761235</v>
+        <v>0.03764844973590674</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3338593627.49015</v>
+        <v>2583005559.154066</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1381610157317491</v>
+        <v>0.108770859347301</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02560824867257043</v>
+        <v>0.02961512842857141</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2156528797.117883</v>
+        <v>2972285161.755758</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1109363259630163</v>
+        <v>0.1501739198740727</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04111612125190379</v>
+        <v>0.03309210952239974</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2039478388.263046</v>
+        <v>1676478164.161388</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1082825888408147</v>
+        <v>0.09231688517714351</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03711515713875653</v>
+        <v>0.04559477070645193</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1664685278.645699</v>
+        <v>1585542325.554305</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1259854949895794</v>
+        <v>0.1406547848979035</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03895262168198382</v>
+        <v>0.03851331232702969</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2464133277.972326</v>
+        <v>2015975643.48733</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08645435701684215</v>
+        <v>0.1072225391265031</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04033083281238835</v>
+        <v>0.04672093112676847</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4730090390.63142</v>
+        <v>3119269211.389439</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045077153652786</v>
+        <v>0.110192600218587</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0430914378241908</v>
+        <v>0.04724032137713918</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2138662153.719692</v>
+        <v>1752648537.440119</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1243331810521948</v>
+        <v>0.1568845144576286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04036678886097272</v>
+        <v>0.03178646119893997</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2138994132.159122</v>
+        <v>2358831203.408326</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1290665350589297</v>
+        <v>0.09960250163008448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0391756409761046</v>
+        <v>0.04491711143932418</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1458540098.791206</v>
+        <v>1641277218.270081</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1164823076816952</v>
+        <v>0.08561549304079306</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04261674798792197</v>
+        <v>0.04609495932394666</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4012058125.193818</v>
+        <v>4023351001.803252</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1670409977845585</v>
+        <v>0.1619697388644768</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02628148775252279</v>
+        <v>0.02099525848370904</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3895541651.675413</v>
+        <v>3905681552.803334</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09346847135519511</v>
+        <v>0.1014474909409896</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02515239899239416</v>
+        <v>0.02935654125108723</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3136322824.802281</v>
+        <v>2161099821.818155</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1161705327858018</v>
+        <v>0.1461755989527338</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03458461295372602</v>
+        <v>0.03178835336296397</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4664054150.532049</v>
+        <v>3874155642.15259</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1364669825077391</v>
+        <v>0.1165935938557175</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02089060593307543</v>
+        <v>0.02709689383535281</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3330449891.90705</v>
+        <v>3470305587.264032</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1502312913142528</v>
+        <v>0.2045571906791945</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04938504510298985</v>
+        <v>0.05446675235515718</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_413.xlsx
+++ b/output/fit_clients/fit_round_413.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2393006811.499678</v>
+        <v>2048991256.853958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1066708457903288</v>
+        <v>0.08723750788971009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03677520285984644</v>
+        <v>0.04001988919414552</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2033727010.544865</v>
+        <v>2318718032.815975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.138800120477898</v>
+        <v>0.1425272845462312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0374988056968974</v>
+        <v>0.03175124998328362</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3291132995.052832</v>
+        <v>3828294408.607757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1604282268488</v>
+        <v>0.1662039226727315</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0335373810729243</v>
+        <v>0.02701896572458849</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>209</v>
+      </c>
+      <c r="J4" t="n">
+        <v>411</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3758716928.003531</v>
+        <v>4236395356.576798</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08983133027680383</v>
+        <v>0.07563914078907504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04718857858685427</v>
+        <v>0.04945574199014051</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>170</v>
+      </c>
+      <c r="J5" t="n">
+        <v>413</v>
+      </c>
+      <c r="K5" t="n">
+        <v>54.59776251051208</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2132493921.296378</v>
+        <v>2553678073.866834</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1214489316079917</v>
+        <v>0.1399418957066222</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03849064761750744</v>
+        <v>0.04056854124696952</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2265495797.057014</v>
+        <v>2896183037.111376</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1006920254522319</v>
+        <v>0.07347617398343631</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04843128084900379</v>
+        <v>0.04013141176322918</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3849719689.516372</v>
+        <v>2763809796.037004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2131421916210717</v>
+        <v>0.1635606922708256</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02327193042589493</v>
+        <v>0.02799503306232142</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.51678799749687</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1826690133.975906</v>
+        <v>1836105028.120297</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1445956561868795</v>
+        <v>0.1640326148867043</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0303396665426544</v>
+        <v>0.03424063700752433</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4952854913.242748</v>
+        <v>5064263508.973012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1899645623962113</v>
+        <v>0.1856584311495708</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03918499850362361</v>
+        <v>0.04586043309437226</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>331</v>
+      </c>
+      <c r="J10" t="n">
+        <v>413</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45.2457928192333</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3539432627.548227</v>
+        <v>3489033273.5455</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602745414524715</v>
+        <v>0.1304069169726363</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03704832202326953</v>
+        <v>0.04360382419033602</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>411</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3262949627.5731</v>
+        <v>2548514067.781526</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1799134682830329</v>
+        <v>0.1783539768820418</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0378321773304168</v>
+        <v>0.03691651816112432</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4225075570.89329</v>
+        <v>4377113199.75202</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07083226459416901</v>
+        <v>0.09012615365303572</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01953696711245827</v>
+        <v>0.02893823024870743</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>215</v>
+      </c>
+      <c r="J13" t="n">
+        <v>413</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3592177054.323709</v>
+        <v>3523396910.483066</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1430583255083793</v>
+        <v>0.1562259571646832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04274426026239363</v>
+        <v>0.04022714288892482</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>83</v>
+      </c>
+      <c r="J14" t="n">
+        <v>413</v>
+      </c>
+      <c r="K14" t="n">
+        <v>52.47880710970335</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1456281525.167149</v>
+        <v>1315088299.365084</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07836390789696411</v>
+        <v>0.08478990060776929</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03716649084689112</v>
+        <v>0.0306287021972122</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2865279006.604565</v>
+        <v>1813013534.638086</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08171837655822885</v>
+        <v>0.09324715844387191</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04454770300474271</v>
+        <v>0.03846059688130078</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5248852468.402476</v>
+        <v>4043161621.730985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1323876666827131</v>
+        <v>0.1093705106164798</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05092365498150276</v>
+        <v>0.0470021083304445</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>199</v>
+      </c>
+      <c r="J17" t="n">
+        <v>413</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3939832038.69537</v>
+        <v>3919892203.839574</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1391447739654003</v>
+        <v>0.1294908910891382</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03151807040057347</v>
+        <v>0.03312060762419768</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>105</v>
+      </c>
+      <c r="J18" t="n">
+        <v>413</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1131528625.375921</v>
+        <v>994250181.7556889</v>
       </c>
       <c r="F19" t="n">
-        <v>0.135266051725653</v>
+        <v>0.1620866766123621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02360219016859321</v>
+        <v>0.02657465390822481</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2420783190.20037</v>
+        <v>2537360972.544113</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1519616493606469</v>
+        <v>0.1531650704066189</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02983898052520588</v>
+        <v>0.02741249078574545</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2638232464.597895</v>
+        <v>2075321747.933523</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08687110507048615</v>
+        <v>0.08367559199014053</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04601199868771261</v>
+        <v>0.03810486811639181</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2830136295.322936</v>
+        <v>3964768630.575768</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1383964677947532</v>
+        <v>0.1442811531332822</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05719996851225555</v>
+        <v>0.05608425049472264</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>413</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1338992665.426125</v>
+        <v>1143574565.00895</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1712436189552745</v>
+        <v>0.1309128084391051</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05050686412364799</v>
+        <v>0.05338138352990759</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3072154364.080456</v>
+        <v>3053788085.03499</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1134409517312137</v>
+        <v>0.1397225603288767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0258981175677544</v>
+        <v>0.02813322527306869</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>129</v>
+      </c>
+      <c r="J24" t="n">
+        <v>410</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>927822085.5349864</v>
+        <v>1043153312.811413</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08698519520003038</v>
+        <v>0.113230118852723</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02426929742354479</v>
+        <v>0.02326799161928262</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1389986897.913107</v>
+        <v>1093220660.321273</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08627452459600711</v>
+        <v>0.1169082237618459</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02792687127962605</v>
+        <v>0.02403336306434285</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3836112807.234879</v>
+        <v>4148477464.619423</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0987485511051121</v>
+        <v>0.121696007551564</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0199542815771397</v>
+        <v>0.02509475126135819</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>174</v>
+      </c>
+      <c r="J27" t="n">
+        <v>413</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3241805004.137803</v>
+        <v>2654333373.150877</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1159030008027097</v>
+        <v>0.1181726708805232</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03843007055517544</v>
+        <v>0.03423062196987471</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>102</v>
+      </c>
+      <c r="J28" t="n">
+        <v>412</v>
+      </c>
+      <c r="K28" t="n">
+        <v>24.73532295889286</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4695101393.730776</v>
+        <v>4829387205.468119</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09210021918721559</v>
+        <v>0.1321355764607146</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03098929676660292</v>
+        <v>0.04491588522789774</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>346</v>
+      </c>
+      <c r="J29" t="n">
+        <v>413</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1981772168.910832</v>
+        <v>2313081563.120438</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1360325614669922</v>
+        <v>0.1367232696224285</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03744450963856694</v>
+        <v>0.02758513836556848</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019914339.516292</v>
+        <v>1146446841.361513</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1119377163633005</v>
+        <v>0.1049325006582266</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04232783731891291</v>
+        <v>0.04370920422771073</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1533183567.139829</v>
+        <v>1165034185.898121</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1040677591832578</v>
+        <v>0.07951108358397144</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02634873515643101</v>
+        <v>0.02969559611369529</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2604929608.96191</v>
+        <v>2240930670.62366</v>
       </c>
       <c r="F33" t="n">
-        <v>0.131724248091639</v>
+        <v>0.1887985615550261</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04129559170625986</v>
+        <v>0.04319680840400492</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1359407891.552518</v>
+        <v>1424782553.023871</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07409562887571888</v>
+        <v>0.07642216427316743</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02532704086358406</v>
+        <v>0.01823756556712911</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1186056005.290308</v>
+        <v>1302742556.712464</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07155325712968746</v>
+        <v>0.08254153763683038</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03152310984017206</v>
+        <v>0.0358424343099357</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2579786928.272341</v>
+        <v>2677150012.734821</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1420517150722776</v>
+        <v>0.1190018663517685</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02506514071104634</v>
+        <v>0.02506475145813905</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2456486512.439033</v>
+        <v>2385366047.186163</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06950656328629227</v>
+        <v>0.07223933111822492</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02698951917912839</v>
+        <v>0.03855441928793456</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2048480080.998362</v>
+        <v>1826695699.313368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08519330325102165</v>
+        <v>0.09832305631661807</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03428131360497302</v>
+        <v>0.03798767450078013</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1616961051.281248</v>
+        <v>1464266341.018644</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1735489675554257</v>
+        <v>0.1280323814678925</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02191158440473272</v>
+        <v>0.0308272751049147</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1171698594.229404</v>
+        <v>1672311770.004757</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1074078421937379</v>
+        <v>0.136929092246696</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05018164354096154</v>
+        <v>0.05724194854778809</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2404824766.893806</v>
+        <v>2618178781.780437</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1508831338151393</v>
+        <v>0.1614536456621687</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04636168264900757</v>
+        <v>0.04657433822176854</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4181303133.264957</v>
+        <v>3356261702.942857</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1051130914807537</v>
+        <v>0.0867455111088407</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04199622684556704</v>
+        <v>0.03714497212051905</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>177</v>
+      </c>
+      <c r="J42" t="n">
+        <v>409</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1975519116.531876</v>
+        <v>2126827350.461922</v>
       </c>
       <c r="F43" t="n">
-        <v>0.173060925176738</v>
+        <v>0.1395073790175973</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0246000057989283</v>
+        <v>0.02329349293192921</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1478887181.105242</v>
+        <v>2041123355.318103</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08733768819064354</v>
+        <v>0.07145651034082655</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03370972923823788</v>
+        <v>0.03007746947265771</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2226480242.20317</v>
+        <v>1741239273.414475</v>
       </c>
       <c r="F45" t="n">
-        <v>0.169850076677976</v>
+        <v>0.1798501507653827</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03463258695440216</v>
+        <v>0.05379150188467452</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5278200805.977547</v>
+        <v>5194454158.802503</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1594875294025262</v>
+        <v>0.110677200712182</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05707876780336248</v>
+        <v>0.0613404986580227</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>248</v>
+      </c>
+      <c r="J46" t="n">
+        <v>412</v>
+      </c>
+      <c r="K46" t="n">
+        <v>43.4490124110816</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4262077210.061365</v>
+        <v>4233012685.950601</v>
       </c>
       <c r="F47" t="n">
-        <v>0.164432057350361</v>
+        <v>0.1571324870505043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04852753261135166</v>
+        <v>0.05105867299032536</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>185</v>
+      </c>
+      <c r="J47" t="n">
+        <v>413</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3297033950.600461</v>
+        <v>4221252675.764933</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09002538364543299</v>
+        <v>0.08843107829333301</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02472476029622212</v>
+        <v>0.0276311268786427</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>212</v>
+      </c>
+      <c r="J48" t="n">
+        <v>413</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1866849992.601551</v>
+        <v>1198042783.211441</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1417997266910646</v>
+        <v>0.121984935550382</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03959903405382209</v>
+        <v>0.03783398069123488</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3446165251.784503</v>
+        <v>3938547546.668261</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1645829566407238</v>
+        <v>0.1758318974464775</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05052487265859971</v>
+        <v>0.04073335501427265</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>142</v>
+      </c>
+      <c r="J50" t="n">
+        <v>413</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1535649909.810636</v>
+        <v>1199551568.469515</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1396306632786086</v>
+        <v>0.1473225351468757</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04604506186082125</v>
+        <v>0.05177511566958035</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4893933888.555965</v>
+        <v>3448463643.73812</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1100919833260787</v>
+        <v>0.0849691101579637</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03743391205018933</v>
+        <v>0.04764385657234792</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>239</v>
+      </c>
+      <c r="J52" t="n">
+        <v>412</v>
+      </c>
+      <c r="K52" t="n">
+        <v>29.33727920262859</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2348460803.761339</v>
+        <v>2889379267.04027</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1456768736894974</v>
+        <v>0.1491980866612517</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02416804320267242</v>
+        <v>0.03472328955569795</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>59</v>
+      </c>
+      <c r="J53" t="n">
+        <v>410</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3245319532.78256</v>
+        <v>3651822018.047719</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1386659473307341</v>
+        <v>0.1426762037302386</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03578945129546449</v>
+        <v>0.04116420830913546</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>220</v>
+      </c>
+      <c r="J54" t="n">
+        <v>412</v>
+      </c>
+      <c r="K54" t="n">
+        <v>33.59701648067821</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4766646207.071312</v>
+        <v>4170234223.954203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2135245253084614</v>
+        <v>0.1910474210813379</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02799820733404844</v>
+        <v>0.03224330393007874</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>204</v>
+      </c>
+      <c r="J55" t="n">
+        <v>412</v>
+      </c>
+      <c r="K55" t="n">
+        <v>43.40645141751352</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1167795749.789675</v>
+        <v>1752542050.059757</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1213650141711829</v>
+        <v>0.1583562906259187</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03979485937438085</v>
+        <v>0.05628980057088695</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3180654724.055334</v>
+        <v>4559908164.413826</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1358925478947358</v>
+        <v>0.1652250730168181</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01838325331863903</v>
+        <v>0.02715273647595508</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>179</v>
+      </c>
+      <c r="J57" t="n">
+        <v>412</v>
+      </c>
+      <c r="K57" t="n">
+        <v>43.59774807526642</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1159449817.429562</v>
+        <v>1660357877.04917</v>
       </c>
       <c r="F58" t="n">
-        <v>0.183483112573024</v>
+        <v>0.195855224397233</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03781862120349965</v>
+        <v>0.02718386162723413</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3925154522.010366</v>
+        <v>3506148172.952729</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08532072114288036</v>
+        <v>0.1146795780149687</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03816276212471566</v>
+        <v>0.03674530462571889</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>202</v>
+      </c>
+      <c r="J59" t="n">
+        <v>412</v>
+      </c>
+      <c r="K59" t="n">
+        <v>32.10345677122941</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2516313517.562274</v>
+        <v>2485958666.398835</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1362056861378018</v>
+        <v>0.162359339196235</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0269015737136344</v>
+        <v>0.02468984472817611</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>76</v>
+      </c>
+      <c r="J60" t="n">
+        <v>410</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2582,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2081511128.793852</v>
+        <v>2252761147.392368</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1086335151496955</v>
+        <v>0.1331701138299984</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02498133011104816</v>
+        <v>0.02640591920838899</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="n">
+        <v>25.38259076293753</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2065888971.596544</v>
+        <v>1312673110.929313</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1225149197964818</v>
+        <v>0.1422050021271649</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03476745015032928</v>
+        <v>0.04114629790827443</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3476447602.862011</v>
+        <v>5449523436.862198</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09783825233977032</v>
+        <v>0.07391060508456425</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03010622797509921</v>
+        <v>0.04640988325591474</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>206</v>
+      </c>
+      <c r="J63" t="n">
+        <v>413</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5025357022.467437</v>
+        <v>4333368424.588909</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1578491995320928</v>
+        <v>0.1653967822959304</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03427047471570104</v>
+        <v>0.02862261151991544</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>207</v>
+      </c>
+      <c r="J64" t="n">
+        <v>412</v>
+      </c>
+      <c r="K64" t="n">
+        <v>40.8087586942669</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3651156959.935423</v>
+        <v>4854161088.373218</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1522498693805815</v>
+        <v>0.1192530073482354</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02732306156311029</v>
+        <v>0.02805989740402269</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>303</v>
+      </c>
+      <c r="J65" t="n">
+        <v>413</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4887201610.737013</v>
+        <v>4665385158.173894</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1242667622155189</v>
+        <v>0.1396934296482225</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04623123683056626</v>
+        <v>0.03786233613772502</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>204</v>
+      </c>
+      <c r="J66" t="n">
+        <v>412</v>
+      </c>
+      <c r="K66" t="n">
+        <v>42.92286413047655</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2703049975.871303</v>
+        <v>3252791646.723846</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07172259332347923</v>
+        <v>0.07941144750935365</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03514184775899878</v>
+        <v>0.03223765246388669</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5140393173.779747</v>
+        <v>5512884294.67695</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1082623581763351</v>
+        <v>0.1470703560059618</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03289923299874587</v>
+        <v>0.04761106540189429</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>225</v>
+      </c>
+      <c r="J68" t="n">
+        <v>413</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2367759405.064447</v>
+        <v>2363253713.361758</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1633465577703742</v>
+        <v>0.1260486835082661</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04551830013002168</v>
+        <v>0.05707163627405159</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2909,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2945249694.579887</v>
+        <v>3522418431.285548</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08019273685847664</v>
+        <v>0.101366068073323</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03622623207814071</v>
+        <v>0.03654790139607757</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>55</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="n">
+        <v>46.0589473966179</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4844181210.964799</v>
+        <v>5504639130.980081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1554307050479406</v>
+        <v>0.178177378065051</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02913368062084211</v>
+        <v>0.03015977812725115</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>290</v>
+      </c>
+      <c r="J71" t="n">
+        <v>413</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1590770445.608836</v>
+        <v>1862100227.834235</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09381157120173096</v>
+        <v>0.06784394978838504</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05262319991235265</v>
+        <v>0.03755763831677994</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2890820564.435287</v>
+        <v>2910739684.620914</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1013479718613715</v>
+        <v>0.09370487131299532</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04284958240163318</v>
+        <v>0.04168616984211664</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3824821594.014493</v>
+        <v>3129077084.775635</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1648500173407531</v>
+        <v>0.1788911584647608</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03366728225819108</v>
+        <v>0.02145574501538512</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>117</v>
+      </c>
+      <c r="J74" t="n">
+        <v>411</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1812189523.113504</v>
+        <v>2455685427.527328</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1323880895715989</v>
+        <v>0.1302647843942278</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03428245347411629</v>
+        <v>0.02774206406507448</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5106245346.520645</v>
+        <v>4049129920.290672</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08647219924332328</v>
+        <v>0.08514207283118753</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02118549982004484</v>
+        <v>0.03066298415334714</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>196</v>
+      </c>
+      <c r="J76" t="n">
+        <v>412</v>
+      </c>
+      <c r="K76" t="n">
+        <v>42.15858255933122</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1489425460.377428</v>
+        <v>1973530800.959961</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1703452576788596</v>
+        <v>0.1189963061301849</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02933135931505067</v>
+        <v>0.03084387609710561</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4687488808.466193</v>
+        <v>4509583437.248605</v>
       </c>
       <c r="F78" t="n">
-        <v>0.131390396751553</v>
+        <v>0.1053346581329732</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04058597976435756</v>
+        <v>0.03735741580208546</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>206</v>
+      </c>
+      <c r="J78" t="n">
+        <v>413</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1399151738.787985</v>
+        <v>1306170840.071733</v>
       </c>
       <c r="F79" t="n">
-        <v>0.151306190244948</v>
+        <v>0.1097196992005661</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03443279437041496</v>
+        <v>0.03841317014991304</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3924922538.478333</v>
+        <v>5463435312.73108</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07747113303059576</v>
+        <v>0.08907051902869526</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02968374043763529</v>
+        <v>0.02856623106337422</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>202</v>
+      </c>
+      <c r="J80" t="n">
+        <v>412</v>
+      </c>
+      <c r="K80" t="n">
+        <v>36.81443905869822</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3974080841.374878</v>
+        <v>4491288982.493958</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08282994634642615</v>
+        <v>0.1287243031858007</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03253398460597524</v>
+        <v>0.02263977186048621</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>191</v>
+      </c>
+      <c r="J81" t="n">
+        <v>413</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3800972679.981877</v>
+        <v>4411642241.063561</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2011373836115221</v>
+        <v>0.1944415801201654</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01832092507934109</v>
+        <v>0.02116904786798957</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>281</v>
+      </c>
+      <c r="J82" t="n">
+        <v>412</v>
+      </c>
+      <c r="K82" t="n">
+        <v>42.97657594824965</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2044341524.888041</v>
+        <v>1498499402.039375</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1295243653247517</v>
+        <v>0.1519021340804172</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02875035582285657</v>
+        <v>0.03152048753874508</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1669610462.213605</v>
+        <v>2096765119.298717</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1173226273023422</v>
+        <v>0.1177647303756534</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04090835795324219</v>
+        <v>0.04508508215202128</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2524966428.499466</v>
+        <v>2816462407.323787</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1814014595677647</v>
+        <v>0.1515177580868192</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04885537860585508</v>
+        <v>0.03517556588025732</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2249176184.397617</v>
+        <v>2607511606.84733</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1631472861764707</v>
+        <v>0.1553442020863144</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01724470084496938</v>
+        <v>0.02761935818717387</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>963093808.1594146</v>
+        <v>1004420825.14358</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1630445095032414</v>
+        <v>0.1384077255073858</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03764844973590674</v>
+        <v>0.03148019697159497</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2583005559.154066</v>
+        <v>2429107616.345176</v>
       </c>
       <c r="F88" t="n">
-        <v>0.108770859347301</v>
+        <v>0.1172694296692852</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02961512842857141</v>
+        <v>0.03734224368331775</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2972285161.755758</v>
+        <v>3327128411.050257</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1501739198740727</v>
+        <v>0.1002780573711651</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03309210952239974</v>
+        <v>0.0281002199339109</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1676478164.161388</v>
+        <v>1667801757.328935</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09231688517714351</v>
+        <v>0.1369878513844293</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04559477070645193</v>
+        <v>0.05287467829785859</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1585542325.554305</v>
+        <v>1853524445.033944</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1406547848979035</v>
+        <v>0.1895700345590831</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03851331232702969</v>
+        <v>0.05407758412604349</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2015975643.48733</v>
+        <v>1980136994.831565</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1072225391265031</v>
+        <v>0.08098877340886819</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04672093112676847</v>
+        <v>0.04481590272266227</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3119269211.389439</v>
+        <v>3740384873.514066</v>
       </c>
       <c r="F93" t="n">
-        <v>0.110192600218587</v>
+        <v>0.1424164231957213</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04724032137713918</v>
+        <v>0.04574552213543614</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>197</v>
+      </c>
+      <c r="J93" t="n">
+        <v>411</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1752648537.440119</v>
+        <v>2250174567.575869</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1568845144576286</v>
+        <v>0.101907868795123</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03178646119893997</v>
+        <v>0.04285140897998678</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2358831203.408326</v>
+        <v>2878178165.730827</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09960250163008448</v>
+        <v>0.1106811411605222</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04491711143932418</v>
+        <v>0.05238054769853836</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1641277218.270081</v>
+        <v>1963733428.007922</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08561549304079306</v>
+        <v>0.08889470925911447</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04609495932394666</v>
+        <v>0.03135142430615574</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4023351001.803252</v>
+        <v>4158139183.180621</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1619697388644768</v>
+        <v>0.1253580167985785</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02099525848370904</v>
+        <v>0.02819438525027053</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>216</v>
+      </c>
+      <c r="J97" t="n">
+        <v>413</v>
+      </c>
+      <c r="K97" t="n">
+        <v>46.59486328570944</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3905681552.803334</v>
+        <v>3279831910.032839</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1014474909409896</v>
+        <v>0.09073168055637422</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02935654125108723</v>
+        <v>0.03265680420841655</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2161099821.818155</v>
+        <v>3322153917.45699</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1461755989527338</v>
+        <v>0.1474943915474067</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03178835336296397</v>
+        <v>0.02263184422431031</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3874155642.15259</v>
+        <v>4793520867.313438</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1165935938557175</v>
+        <v>0.1229256490905752</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02709689383535281</v>
+        <v>0.01879204708970984</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>193</v>
+      </c>
+      <c r="J100" t="n">
+        <v>412</v>
+      </c>
+      <c r="K100" t="n">
+        <v>43.85033363520197</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3470305587.264032</v>
+        <v>2216615660.508235</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2045571906791945</v>
+        <v>0.2096283974117545</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05446675235515718</v>
+        <v>0.0504587818628123</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
